--- a/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/SoQuy_Export_Template.xlsx
+++ b/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/SoQuy_Export_Template.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SSOFT\Open beauty\lucky_beauty\beautify_api\8.0.0\aspnet-core\src\BanHangBeautify.Web.Host\wwwroot\ExcelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code-manhld-github\beautify_app_flutter\beautify_api\8.0.0\aspnet-core\src\BanHangBeautify.Web.Host\wwwroot\ExcelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -192,7 +192,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -263,6 +263,18 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -545,12 +557,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL85"/>
+  <dimension ref="A1:CL86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,6 +769,7 @@
       <c r="E5" s="23"/>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
+      <c r="H5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
@@ -792,13 +805,14 @@
       <c r="AR5" s="9"/>
     </row>
     <row r="6" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -834,13 +848,14 @@
       <c r="AR6" s="9"/>
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="15"/>
-      <c r="C7" s="19"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
+      <c r="A7" s="25"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -876,13 +891,14 @@
       <c r="AR7" s="9"/>
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="15"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
+      <c r="A8" s="25"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
       <c r="L8" s="8"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -916,13 +932,14 @@
       <c r="AP8" s="9"/>
     </row>
     <row r="9" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="A9" s="25"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
       <c r="L9" s="8"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -956,13 +973,14 @@
       <c r="AP9" s="9"/>
     </row>
     <row r="10" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="A10" s="25"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
       <c r="L10" s="8"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -996,13 +1014,14 @@
       <c r="AP10" s="9"/>
     </row>
     <row r="11" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="A11" s="25"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -1036,13 +1055,14 @@
       <c r="AP11" s="9"/>
     </row>
     <row r="12" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="A12" s="25"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -1076,13 +1096,14 @@
       <c r="AP12" s="9"/>
     </row>
     <row r="13" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="A13" s="25"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
       <c r="L13" s="8"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -1116,13 +1137,14 @@
       <c r="AP13" s="9"/>
     </row>
     <row r="14" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="A14" s="25"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
       <c r="L14" s="8"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -1156,643 +1178,724 @@
       <c r="AP14" s="9"/>
     </row>
     <row r="15" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="21"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="A15" s="25"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="19"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="19"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="19"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="19"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="19"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="23"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="15"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="14"/>
-      <c r="B48" s="15"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="14"/>
-      <c r="B49" s="15"/>
-      <c r="C49" s="19"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="23"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="15"/>
-      <c r="C50" s="19"/>
-      <c r="D50" s="21"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="14"/>
-      <c r="B51" s="15"/>
-      <c r="C51" s="19"/>
-      <c r="D51" s="21"/>
-      <c r="E51" s="23"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="14"/>
-      <c r="B52" s="15"/>
-      <c r="C52" s="19"/>
-      <c r="D52" s="21"/>
-      <c r="E52" s="23"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="15"/>
-      <c r="C53" s="19"/>
-      <c r="D53" s="21"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="14"/>
-      <c r="B54" s="15"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="21"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="14"/>
-      <c r="B55" s="15"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="21"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="15"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="21"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="14"/>
-      <c r="B57" s="15"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="23"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="14"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="21"/>
-      <c r="E58" s="23"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="15"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="21"/>
-      <c r="E59" s="23"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="14"/>
-      <c r="B60" s="15"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="23"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="14"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="21"/>
-      <c r="E61" s="23"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="15"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="21"/>
-      <c r="E62" s="23"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="14"/>
-      <c r="B63" s="15"/>
-      <c r="C63" s="19"/>
-      <c r="D63" s="21"/>
-      <c r="E63" s="23"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="14"/>
-      <c r="B64" s="15"/>
-      <c r="C64" s="19"/>
-      <c r="D64" s="21"/>
-      <c r="E64" s="23"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="15"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="21"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="14"/>
-      <c r="B66" s="15"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="21"/>
-      <c r="E66" s="23"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="14"/>
-      <c r="B67" s="15"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="21"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="15"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="21"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="14"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="21"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="14"/>
-      <c r="B70" s="15"/>
-      <c r="C70" s="19"/>
-      <c r="D70" s="21"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="15"/>
-      <c r="C71" s="19"/>
-      <c r="D71" s="21"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="14"/>
-      <c r="B72" s="15"/>
-      <c r="C72" s="19"/>
-      <c r="D72" s="21"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="14"/>
-      <c r="B73" s="15"/>
-      <c r="C73" s="19"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="15"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="14"/>
-      <c r="B75" s="15"/>
-      <c r="C75" s="19"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="14"/>
-      <c r="B76" s="15"/>
-      <c r="C76" s="19"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="15"/>
-      <c r="C77" s="19"/>
-      <c r="D77" s="21"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
-      <c r="B78" s="15"/>
-      <c r="C78" s="19"/>
-      <c r="D78" s="21"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="14"/>
-      <c r="B79" s="15"/>
-      <c r="C79" s="19"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="15"/>
-      <c r="C80" s="19"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="14"/>
-      <c r="B81" s="15"/>
-      <c r="C81" s="19"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="14"/>
-      <c r="B82" s="15"/>
-      <c r="C82" s="19"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="23"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="15"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="21"/>
-      <c r="E83" s="23"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="14"/>
-      <c r="B84" s="15"/>
-      <c r="C84" s="19"/>
-      <c r="D84" s="21"/>
-      <c r="E84" s="23"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="14"/>
-      <c r="B85" s="15"/>
-      <c r="C85" s="19"/>
-      <c r="D85" s="21"/>
-      <c r="E85" s="23"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="25"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="25"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="25"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="25"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="25"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="25"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="25"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="25"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="25"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="26"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="25"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="25"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="28"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="25"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="28"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="25"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="25"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="25"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="25"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="25"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="25"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="25"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="25"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="25"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="28"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="25"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="25"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="25"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="25"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="25"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="27"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="25"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="28"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="25"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="27"/>
+      <c r="E54" s="28"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="25"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="25"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="27"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="25"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="26"/>
+      <c r="D57" s="27"/>
+      <c r="E57" s="28"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="25"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="26"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="25"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="28"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="25"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="26"/>
+      <c r="D60" s="27"/>
+      <c r="E60" s="28"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="25"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="28"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="25"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="26"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="28"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="25"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="26"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="28"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="25"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="27"/>
+      <c r="E64" s="28"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="25"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="26"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="28"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="25"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="26"/>
+      <c r="D66" s="27"/>
+      <c r="E66" s="28"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="25"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="27"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="27"/>
+      <c r="E68" s="28"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="27"/>
+      <c r="E69" s="28"/>
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="27"/>
+      <c r="E70" s="28"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="25"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="28"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="27"/>
+      <c r="E72" s="28"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="28"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="28"/>
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="26"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="28"/>
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="27"/>
+      <c r="E76" s="28"/>
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="26"/>
+      <c r="D77" s="27"/>
+      <c r="E77" s="28"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="25"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="28"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="25"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="26"/>
+      <c r="D79" s="27"/>
+      <c r="E79" s="28"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="25"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="26"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="25"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="26"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="25"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="26"/>
+      <c r="D82" s="27"/>
+      <c r="E82" s="28"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="25"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="26"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="28"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="25"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="26"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="28"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="25"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="26"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="28"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="25"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="26"/>
+      <c r="D86" s="27"/>
+      <c r="E86" s="28"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/SoQuy_Export_Template.xlsx
+++ b/beautify_api/8.0.0/aspnet-core/src/BanHangBeautify.Web.Host/wwwroot/ExcelTemplate/SoQuy_Export_Template.xlsx
@@ -32,31 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>HoTen</t>
-  </si>
-  <si>
-    <t>NgaySinh</t>
-  </si>
-  <si>
-    <t>SoDienThoai</t>
-  </si>
-  <si>
-    <t>CanCuocCongDan</t>
-  </si>
-  <si>
-    <t>DiaChi</t>
-  </si>
-  <si>
-    <t>TenTinhThanh</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>NgayBatDauLamViec</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Danh sách sổ quỹ</t>
   </si>
@@ -261,20 +237,20 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -562,7 +538,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,42 +556,17 @@
     <col min="12" max="12" width="24" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:90" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:90" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:90" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:90" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -657,25 +608,25 @@
     </row>
     <row r="4" spans="1:90" s="5" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
@@ -805,11 +756,11 @@
       <c r="AR5" s="9"/>
     </row>
     <row r="6" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="24"/>
       <c r="B6" s="8"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="27"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -848,11 +799,11 @@
       <c r="AR6" s="9"/>
     </row>
     <row r="7" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="28"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
@@ -891,11 +842,11 @@
       <c r="AR7" s="9"/>
     </row>
     <row r="8" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="8"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="27"/>
-      <c r="E8" s="28"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="27"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
@@ -932,11 +883,11 @@
       <c r="AP8" s="9"/>
     </row>
     <row r="9" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="28"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -973,11 +924,11 @@
       <c r="AP9" s="9"/>
     </row>
     <row r="10" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="8"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="27"/>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1014,11 +965,11 @@
       <c r="AP10" s="9"/>
     </row>
     <row r="11" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="8"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27"/>
-      <c r="E11" s="28"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="27"/>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
@@ -1055,11 +1006,11 @@
       <c r="AP11" s="9"/>
     </row>
     <row r="12" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A12" s="25"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="27"/>
       <c r="F12" s="8"/>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
@@ -1096,11 +1047,11 @@
       <c r="AP12" s="9"/>
     </row>
     <row r="13" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="24"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
@@ -1137,11 +1088,11 @@
       <c r="AP13" s="9"/>
     </row>
     <row r="14" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="8"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="27"/>
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
@@ -1178,721 +1129,721 @@
       <c r="AP14" s="9"/>
     </row>
     <row r="15" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="8"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="28"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="27"/>
       <c r="F15" s="8"/>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:90" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="8"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="27"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="25"/>
+      <c r="A17" s="24"/>
       <c r="B17" s="8"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="28"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="27"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="24"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="28"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="27"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
+      <c r="A19" s="24"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27"/>
-      <c r="E19" s="28"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="27"/>
       <c r="F19" s="8"/>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="8"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27"/>
-      <c r="E20" s="28"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="27"/>
       <c r="F20" s="8"/>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="25"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="8"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="28"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="8"/>
       <c r="G21" s="8"/>
       <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="25"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="27"/>
-      <c r="E22" s="28"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="8"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="25"/>
+      <c r="A23" s="24"/>
       <c r="B23" s="8"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="27"/>
-      <c r="E23" s="28"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
       <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="25"/>
+      <c r="A24" s="24"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="27"/>
-      <c r="E24" s="28"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="8"/>
       <c r="G24" s="8"/>
       <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="25"/>
+      <c r="A25" s="24"/>
       <c r="B25" s="8"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="28"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="8"/>
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="25"/>
+      <c r="A26" s="24"/>
       <c r="B26" s="8"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="28"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="27"/>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="25"/>
+      <c r="A27" s="24"/>
       <c r="B27" s="8"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="28"/>
+      <c r="C27" s="25"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="27"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
+      <c r="A28" s="24"/>
       <c r="B28" s="8"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="28"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="25"/>
+      <c r="A29" s="24"/>
       <c r="B29" s="8"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="28"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="27"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="25"/>
+      <c r="A30" s="24"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="28"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="27"/>
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c r="H30" s="8"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+      <c r="A31" s="24"/>
       <c r="B31" s="8"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="28"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="27"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c r="H31" s="8"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+      <c r="A32" s="24"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="28"/>
+      <c r="C32" s="25"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="27"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="25"/>
+      <c r="A33" s="24"/>
       <c r="B33" s="8"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="28"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="27"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
+      <c r="A34" s="24"/>
       <c r="B34" s="8"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="28"/>
+      <c r="C34" s="25"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="27"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c r="H34" s="8"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="25"/>
+      <c r="A35" s="24"/>
       <c r="B35" s="8"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="28"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="27"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="25"/>
+      <c r="A36" s="24"/>
       <c r="B36" s="8"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="28"/>
+      <c r="C36" s="25"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="27"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
+      <c r="A37" s="24"/>
       <c r="B37" s="8"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="28"/>
+      <c r="C37" s="25"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="27"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="25"/>
+      <c r="A38" s="24"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="28"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="27"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
+      <c r="A39" s="24"/>
       <c r="B39" s="8"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="28"/>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="27"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
+      <c r="A40" s="24"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="28"/>
+      <c r="C40" s="25"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="27"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
+      <c r="A41" s="24"/>
       <c r="B41" s="8"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="28"/>
+      <c r="C41" s="25"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="27"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
+      <c r="A42" s="24"/>
       <c r="B42" s="8"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="28"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="27"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="25"/>
+      <c r="A43" s="24"/>
       <c r="B43" s="8"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="28"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="27"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
+      <c r="A44" s="24"/>
       <c r="B44" s="8"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="28"/>
+      <c r="C44" s="25"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="27"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
+      <c r="A45" s="24"/>
       <c r="B45" s="8"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="28"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="27"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
+      <c r="A46" s="24"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="26"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="28"/>
+      <c r="C46" s="25"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="27"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
+      <c r="A47" s="24"/>
       <c r="B47" s="8"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="28"/>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="27"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c r="H47" s="8"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
+      <c r="A48" s="24"/>
       <c r="B48" s="8"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="27"/>
-      <c r="E48" s="28"/>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="27"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
+      <c r="A49" s="24"/>
       <c r="B49" s="8"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="28"/>
+      <c r="C49" s="25"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="27"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
+      <c r="A50" s="24"/>
       <c r="B50" s="8"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="28"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="27"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
+      <c r="A51" s="24"/>
       <c r="B51" s="8"/>
-      <c r="C51" s="26"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="28"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="27"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c r="H51" s="8"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
+      <c r="A52" s="24"/>
       <c r="B52" s="8"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="27"/>
-      <c r="E52" s="28"/>
+      <c r="C52" s="25"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="27"/>
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="25"/>
+      <c r="A53" s="24"/>
       <c r="B53" s="8"/>
-      <c r="C53" s="26"/>
-      <c r="D53" s="27"/>
-      <c r="E53" s="28"/>
+      <c r="C53" s="25"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="27"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
+      <c r="A54" s="24"/>
       <c r="B54" s="8"/>
-      <c r="C54" s="26"/>
-      <c r="D54" s="27"/>
-      <c r="E54" s="28"/>
+      <c r="C54" s="25"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="27"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
+      <c r="A55" s="24"/>
       <c r="B55" s="8"/>
-      <c r="C55" s="26"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="28"/>
+      <c r="C55" s="25"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="27"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
+      <c r="A56" s="24"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="26"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="28"/>
+      <c r="C56" s="25"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="27"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="25"/>
+      <c r="A57" s="24"/>
       <c r="B57" s="8"/>
-      <c r="C57" s="26"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="28"/>
+      <c r="C57" s="25"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="27"/>
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c r="H57" s="8"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="25"/>
+      <c r="A58" s="24"/>
       <c r="B58" s="8"/>
-      <c r="C58" s="26"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="28"/>
+      <c r="C58" s="25"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="27"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="25"/>
+      <c r="A59" s="24"/>
       <c r="B59" s="8"/>
-      <c r="C59" s="26"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="28"/>
+      <c r="C59" s="25"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="27"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="25"/>
+      <c r="A60" s="24"/>
       <c r="B60" s="8"/>
-      <c r="C60" s="26"/>
-      <c r="D60" s="27"/>
-      <c r="E60" s="28"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="27"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="25"/>
+      <c r="A61" s="24"/>
       <c r="B61" s="8"/>
-      <c r="C61" s="26"/>
-      <c r="D61" s="27"/>
-      <c r="E61" s="28"/>
+      <c r="C61" s="25"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="27"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
+      <c r="A62" s="24"/>
       <c r="B62" s="8"/>
-      <c r="C62" s="26"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="28"/>
+      <c r="C62" s="25"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="27"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
+      <c r="A63" s="24"/>
       <c r="B63" s="8"/>
-      <c r="C63" s="26"/>
-      <c r="D63" s="27"/>
-      <c r="E63" s="28"/>
+      <c r="C63" s="25"/>
+      <c r="D63" s="26"/>
+      <c r="E63" s="27"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
+      <c r="A64" s="24"/>
       <c r="B64" s="8"/>
-      <c r="C64" s="26"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="28"/>
+      <c r="C64" s="25"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="27"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
+      <c r="A65" s="24"/>
       <c r="B65" s="8"/>
-      <c r="C65" s="26"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="28"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="26"/>
+      <c r="E65" s="27"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
+      <c r="A66" s="24"/>
       <c r="B66" s="8"/>
-      <c r="C66" s="26"/>
-      <c r="D66" s="27"/>
-      <c r="E66" s="28"/>
+      <c r="C66" s="25"/>
+      <c r="D66" s="26"/>
+      <c r="E66" s="27"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c r="H66" s="8"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="25"/>
+      <c r="A67" s="24"/>
       <c r="B67" s="8"/>
-      <c r="C67" s="26"/>
-      <c r="D67" s="27"/>
-      <c r="E67" s="28"/>
+      <c r="C67" s="25"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="27"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c r="H67" s="8"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="25"/>
+      <c r="A68" s="24"/>
       <c r="B68" s="8"/>
-      <c r="C68" s="26"/>
-      <c r="D68" s="27"/>
-      <c r="E68" s="28"/>
+      <c r="C68" s="25"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="27"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c r="H68" s="8"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="25"/>
+      <c r="A69" s="24"/>
       <c r="B69" s="8"/>
-      <c r="C69" s="26"/>
-      <c r="D69" s="27"/>
-      <c r="E69" s="28"/>
+      <c r="C69" s="25"/>
+      <c r="D69" s="26"/>
+      <c r="E69" s="27"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c r="H69" s="8"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="25"/>
+      <c r="A70" s="24"/>
       <c r="B70" s="8"/>
-      <c r="C70" s="26"/>
-      <c r="D70" s="27"/>
-      <c r="E70" s="28"/>
+      <c r="C70" s="25"/>
+      <c r="D70" s="26"/>
+      <c r="E70" s="27"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="25"/>
+      <c r="A71" s="24"/>
       <c r="B71" s="8"/>
-      <c r="C71" s="26"/>
-      <c r="D71" s="27"/>
-      <c r="E71" s="28"/>
+      <c r="C71" s="25"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="27"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="25"/>
+      <c r="A72" s="24"/>
       <c r="B72" s="8"/>
-      <c r="C72" s="26"/>
-      <c r="D72" s="27"/>
-      <c r="E72" s="28"/>
+      <c r="C72" s="25"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="27"/>
       <c r="F72" s="8"/>
       <c r="G72" s="8"/>
       <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="25"/>
+      <c r="A73" s="24"/>
       <c r="B73" s="8"/>
-      <c r="C73" s="26"/>
-      <c r="D73" s="27"/>
-      <c r="E73" s="28"/>
+      <c r="C73" s="25"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="27"/>
       <c r="F73" s="8"/>
       <c r="G73" s="8"/>
       <c r="H73" s="8"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="25"/>
+      <c r="A74" s="24"/>
       <c r="B74" s="8"/>
-      <c r="C74" s="26"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="28"/>
+      <c r="C74" s="25"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="27"/>
       <c r="F74" s="8"/>
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="25"/>
+      <c r="A75" s="24"/>
       <c r="B75" s="8"/>
-      <c r="C75" s="26"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="28"/>
+      <c r="C75" s="25"/>
+      <c r="D75" s="26"/>
+      <c r="E75" s="27"/>
       <c r="F75" s="8"/>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="25"/>
+      <c r="A76" s="24"/>
       <c r="B76" s="8"/>
-      <c r="C76" s="26"/>
-      <c r="D76" s="27"/>
-      <c r="E76" s="28"/>
+      <c r="C76" s="25"/>
+      <c r="D76" s="26"/>
+      <c r="E76" s="27"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
       <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="25"/>
+      <c r="A77" s="24"/>
       <c r="B77" s="8"/>
-      <c r="C77" s="26"/>
-      <c r="D77" s="27"/>
-      <c r="E77" s="28"/>
+      <c r="C77" s="25"/>
+      <c r="D77" s="26"/>
+      <c r="E77" s="27"/>
       <c r="F77" s="8"/>
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="25"/>
+      <c r="A78" s="24"/>
       <c r="B78" s="8"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="28"/>
+      <c r="C78" s="25"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="27"/>
       <c r="F78" s="8"/>
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
+      <c r="A79" s="24"/>
       <c r="B79" s="8"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="27"/>
-      <c r="E79" s="28"/>
+      <c r="C79" s="25"/>
+      <c r="D79" s="26"/>
+      <c r="E79" s="27"/>
       <c r="F79" s="8"/>
       <c r="G79" s="8"/>
       <c r="H79" s="8"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="25"/>
+      <c r="A80" s="24"/>
       <c r="B80" s="8"/>
-      <c r="C80" s="26"/>
-      <c r="D80" s="27"/>
-      <c r="E80" s="28"/>
+      <c r="C80" s="25"/>
+      <c r="D80" s="26"/>
+      <c r="E80" s="27"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
       <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A81" s="25"/>
+      <c r="A81" s="24"/>
       <c r="B81" s="8"/>
-      <c r="C81" s="26"/>
-      <c r="D81" s="27"/>
-      <c r="E81" s="28"/>
+      <c r="C81" s="25"/>
+      <c r="D81" s="26"/>
+      <c r="E81" s="27"/>
       <c r="F81" s="8"/>
       <c r="G81" s="8"/>
       <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82" s="25"/>
+      <c r="A82" s="24"/>
       <c r="B82" s="8"/>
-      <c r="C82" s="26"/>
-      <c r="D82" s="27"/>
-      <c r="E82" s="28"/>
+      <c r="C82" s="25"/>
+      <c r="D82" s="26"/>
+      <c r="E82" s="27"/>
       <c r="F82" s="8"/>
       <c r="G82" s="8"/>
       <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="25"/>
+      <c r="A83" s="24"/>
       <c r="B83" s="8"/>
-      <c r="C83" s="26"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="28"/>
+      <c r="C83" s="25"/>
+      <c r="D83" s="26"/>
+      <c r="E83" s="27"/>
       <c r="F83" s="8"/>
       <c r="G83" s="8"/>
       <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="25"/>
+      <c r="A84" s="24"/>
       <c r="B84" s="8"/>
-      <c r="C84" s="26"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="28"/>
+      <c r="C84" s="25"/>
+      <c r="D84" s="26"/>
+      <c r="E84" s="27"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
       <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="25"/>
+      <c r="A85" s="24"/>
       <c r="B85" s="8"/>
-      <c r="C85" s="26"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="28"/>
+      <c r="C85" s="25"/>
+      <c r="D85" s="26"/>
+      <c r="E85" s="27"/>
       <c r="F85" s="8"/>
       <c r="G85" s="8"/>
       <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
+      <c r="A86" s="24"/>
       <c r="B86" s="8"/>
-      <c r="C86" s="26"/>
-      <c r="D86" s="27"/>
-      <c r="E86" s="28"/>
+      <c r="C86" s="25"/>
+      <c r="D86" s="26"/>
+      <c r="E86" s="27"/>
       <c r="F86" s="8"/>
       <c r="G86" s="8"/>
       <c r="H86" s="8"/>
